--- a/eval_result_only_rewrite.xlsx
+++ b/eval_result_only_rewrite.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/npn/Workspace/ChuyenDeNghienCuu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD27BE6-8B35-0744-AF75-A34B26C6F6F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D8ECC7-0DA4-D74F-811F-1BF295C92210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="33600" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4200" yWindow="500" windowWidth="29400" windowHeight="19000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3849,36 +3849,12 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFF0000"/>
           <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4180,10 +4156,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D39" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
@@ -4215,7 +4190,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -4235,7 +4210,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -4275,7 +4250,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -4295,7 +4270,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -4315,7 +4290,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -4335,7 +4310,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -4355,7 +4330,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -4395,7 +4370,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -4415,7 +4390,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -4435,7 +4410,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -4455,7 +4430,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -4475,7 +4450,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -4495,7 +4470,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -4535,7 +4510,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -4555,7 +4530,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -4575,7 +4550,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -4595,7 +4570,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -4615,7 +4590,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -4635,7 +4610,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -4655,7 +4630,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -4675,7 +4650,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -4695,7 +4670,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -4715,7 +4690,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -4753,7 +4728,7 @@
       </c>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -4773,7 +4748,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -4793,7 +4768,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -4813,7 +4788,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -4833,7 +4808,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -4853,7 +4828,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -4893,7 +4868,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -4913,7 +4888,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -4933,7 +4908,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -4973,7 +4948,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -4987,7 +4962,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -5001,7 +4976,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -5015,7 +4990,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -5029,7 +5004,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -5043,7 +5018,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>43</v>
       </c>
@@ -5057,7 +5032,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -5071,7 +5046,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>45</v>
       </c>
@@ -5085,7 +5060,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="44" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="44" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>46</v>
       </c>
@@ -5096,7 +5071,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>47</v>
       </c>
@@ -5110,7 +5085,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>48</v>
       </c>
@@ -5124,7 +5099,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>49</v>
       </c>
@@ -5138,7 +5113,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>50</v>
       </c>
@@ -5152,7 +5127,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>51</v>
       </c>
@@ -5166,7 +5141,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>52</v>
       </c>
@@ -5180,7 +5155,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>53</v>
       </c>
@@ -5194,7 +5169,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>54</v>
       </c>
@@ -5208,7 +5183,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>55</v>
       </c>
@@ -5222,7 +5197,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>56</v>
       </c>
@@ -5236,7 +5211,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>57</v>
       </c>
@@ -5250,7 +5225,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>58</v>
       </c>
@@ -5264,7 +5239,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>59</v>
       </c>
@@ -5278,7 +5253,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>60</v>
       </c>
@@ -5292,7 +5267,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>61</v>
       </c>
@@ -5306,7 +5281,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>62</v>
       </c>
@@ -5320,7 +5295,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>63</v>
       </c>
@@ -5334,7 +5309,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>64</v>
       </c>
@@ -5348,7 +5323,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>65</v>
       </c>
@@ -5362,7 +5337,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>66</v>
       </c>
@@ -5376,7 +5351,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>67</v>
       </c>
@@ -5390,7 +5365,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>68</v>
       </c>
@@ -5404,7 +5379,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>69</v>
       </c>
@@ -5418,7 +5393,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>70</v>
       </c>
@@ -5432,7 +5407,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>71</v>
       </c>
@@ -5446,7 +5421,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>72</v>
       </c>
@@ -5460,7 +5435,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>73</v>
       </c>
@@ -5474,7 +5449,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>74</v>
       </c>
@@ -5488,7 +5463,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>75</v>
       </c>
@@ -5502,7 +5477,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>76</v>
       </c>
@@ -5516,7 +5491,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>77</v>
       </c>
@@ -5530,7 +5505,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>78</v>
       </c>
@@ -5544,7 +5519,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>79</v>
       </c>
@@ -5558,7 +5533,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>80</v>
       </c>
@@ -5572,7 +5547,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>81</v>
       </c>
@@ -5586,7 +5561,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>82</v>
       </c>
@@ -5600,7 +5575,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>83</v>
       </c>
@@ -5614,7 +5589,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>84</v>
       </c>
@@ -5628,7 +5603,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>85</v>
       </c>
@@ -5642,7 +5617,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>86</v>
       </c>
@@ -5656,7 +5631,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>87</v>
       </c>
@@ -5671,11 +5646,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F89" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="5">
-      <colorFilter dxfId="0"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F89" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>